--- a/doorgen/task/result_dorgen_links_only.xlsx
+++ b/doorgen/task/result_dorgen_links_only.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="28635" windowHeight="12780"/>
@@ -18,24 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
   <si>
-    <t>Рейтинг банковских услуг.</t>
-  </si>
-  <si>
-    <t>Банковские услуги в сфере кредитования.</t>
-  </si>
-  <si>
-    <t>Только лучшие Банковские услуги.</t>
-  </si>
-  <si>
-    <t>Топ Банковских Услуг.</t>
-  </si>
-  <si>
-    <t>Мы первые в сфере кредитования.</t>
-  </si>
-  <si>
-    <t>Получи свой кредит в течении часа.</t>
-  </si>
-  <si>
     <t>Мы тебе не откажем!</t>
   </si>
   <si>
@@ -151,16 +133,42 @@
   </si>
   <si>
     <t>http://news.yandex.ru/ru/energy5.utf8.js</t>
+  </si>
+  <si>
+    <t>Банковские услуги в сфере кредитования</t>
+  </si>
+  <si>
+    <t>Только лучшие Банковские услуги</t>
+  </si>
+  <si>
+    <t>Топ Банковских Услуг</t>
+  </si>
+  <si>
+    <t>Мы первые в сфере кредитования</t>
+  </si>
+  <si>
+    <t>Получи свой кредит в течении часа</t>
+  </si>
+  <si>
+    <t>Рейтинг банковских услуг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,20 +191,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -275,6 +291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -484,14 +502,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
@@ -504,239 +522,245 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="60">
+    <row r="1" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="3:12">
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12">
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12">
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="C2:C10">
     <sortCondition ref="C17:C25"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G8" r:id="rId3"/>
+    <hyperlink ref="G9" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doorgen/task/result_dorgen_links_only.xlsx
+++ b/doorgen/task/result_dorgen_links_only.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28635" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Мы тебе не откажем!</t>
   </si>
@@ -156,8 +156,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,7 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -326,7 +325,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -502,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
@@ -522,7 +520,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" ht="60">
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
@@ -548,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:12">
       <c r="C2" t="s">
         <v>28</v>
       </c>
@@ -567,8 +565,20 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -587,8 +597,20 @@
       <c r="H3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -607,8 +629,20 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -627,8 +661,20 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
       <c r="C6" t="s">
         <v>27</v>
       </c>
@@ -647,8 +693,20 @@
       <c r="H6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -667,8 +725,20 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -687,8 +757,20 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -707,8 +789,20 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -725,6 +819,18 @@
         <v>38</v>
       </c>
       <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -743,24 +849,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doorgen/task/result_dorgen_links_only.xlsx
+++ b/doorgen/task/result_dorgen_links_only.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="66">
   <si>
     <t>Мы тебе не откажем!</t>
   </si>
@@ -151,13 +151,77 @@
   </si>
   <si>
     <t>Рейтинг банковских услуг</t>
+  </si>
+  <si>
+    <t>akadx.ru</t>
+  </si>
+  <si>
+    <t>akafd.ru</t>
+  </si>
+  <si>
+    <t>akagf.ru</t>
+  </si>
+  <si>
+    <t>akahg.ru</t>
+  </si>
+  <si>
+    <t>akajh.ru</t>
+  </si>
+  <si>
+    <t>akakj.ru</t>
+  </si>
+  <si>
+    <t>akalk.ru</t>
+  </si>
+  <si>
+    <t>akapo.ru</t>
+  </si>
+  <si>
+    <t>akass.ru</t>
+  </si>
+  <si>
+    <t>akaxd.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Выгодные предложения банков</t>
+  </si>
+  <si>
+    <t>dg_2_akadx</t>
+  </si>
+  <si>
+    <t>dg_2_akafd</t>
+  </si>
+  <si>
+    <t>dg_2_akagf</t>
+  </si>
+  <si>
+    <t>dg_2_akahg</t>
+  </si>
+  <si>
+    <t>dg_2_akajh</t>
+  </si>
+  <si>
+    <t>dg_2_akakj</t>
+  </si>
+  <si>
+    <t>dg_2_akalk</t>
+  </si>
+  <si>
+    <t>dg_2_akapo</t>
+  </si>
+  <si>
+    <t>dg_2_akass</t>
+  </si>
+  <si>
+    <t>dg_2_akaxd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +355,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -325,6 +390,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -500,14 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.42578125" bestFit="1" customWidth="1"/>
@@ -520,7 +586,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" ht="60">
+    <row r="1" spans="3:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
@@ -546,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="3:12">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>28</v>
       </c>
@@ -578,7 +644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -610,7 +676,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>29</v>
       </c>
@@ -642,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>26</v>
       </c>
@@ -674,7 +740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>27</v>
       </c>
@@ -706,7 +772,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -738,7 +804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -770,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -802,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>25</v>
       </c>
@@ -831,6 +897,266 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -843,30 +1169,40 @@
     <hyperlink ref="G4" r:id="rId2"/>
     <hyperlink ref="G8" r:id="rId3"/>
     <hyperlink ref="G9" r:id="rId4"/>
+    <hyperlink ref="G13" r:id="rId5"/>
+    <hyperlink ref="G14" r:id="rId6"/>
+    <hyperlink ref="G18" r:id="rId7"/>
+    <hyperlink ref="G19" r:id="rId8"/>
+    <hyperlink ref="G15" r:id="rId9"/>
+    <hyperlink ref="G16" r:id="rId10"/>
+    <hyperlink ref="G20" r:id="rId11"/>
+    <hyperlink ref="G21" r:id="rId12"/>
+    <hyperlink ref="G12" r:id="rId13"/>
+    <hyperlink ref="G17" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
